--- a/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>84.49</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.22</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.21</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -650,25 +710,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.80</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -716,15 +796,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>83.61</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.73</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>009726</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>招商中证500等权重指数增强A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -762,25 +862,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009726</t>
+          <t>009727</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强A</t>
+          <t>招商中证500等权重指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.56</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009727</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强C</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>44.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1771,4 +1772,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1780,7 +1781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,17 +1792,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1811,14 +1832,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.71</v>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1827,14 +1870,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1843,14 +1908,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.66</v>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1859,13 +1946,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2027,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,17 +2039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2058,14 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.49</v>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2074,14 +2117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.71</v>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2090,14 +2155,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -2106,14 +2277,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.66</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -2122,13 +2293,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2245,14 +2288,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.49</v>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2261,14 +2326,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.71</v>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2277,14 +2364,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4</v>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2293,14 +2402,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.66</v>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2309,13 +2440,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.71</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.66</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>富国中证体育产业指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0842</t>
+          <t>0.0719</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -704,22 +721,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0712</t>
+          <t>0.0618</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -742,22 +759,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0441</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -818,22 +835,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0137</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -856,22 +873,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -884,6 +901,290 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1925,7 +2226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2133,7 +2434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2531,7 +2832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002701-奥瑞金.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.49</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.71</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.66</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +794,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0719</t>
+          <t>0.0764</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,26 +832,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0618</t>
+          <t>0.0687</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +870,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -797,22 +908,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0165</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -835,26 +946,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -873,26 +984,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -962,31 +1073,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>富国中证体育产业指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0842</t>
+          <t>0.0719</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1005,22 +1116,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0712</t>
+          <t>0.0618</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1043,22 +1154,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0441</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1081,26 +1192,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1119,22 +1230,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0137</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1157,22 +1268,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1185,6 +1296,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1354,7 +1749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1600,7 +1995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2226,7 +2621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2434,7 +2829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2830,98 +3225,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0987</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>